--- a/Fig6_ResRateTimeSeries/Jan1BaselineTieredRate.xlsx
+++ b/Fig6_ResRateTimeSeries/Jan1BaselineTieredRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayan/Developer/CCAResearch/ConsolidatedPrimerData/CA_electricity_primer/Fig6_ResRateTimeSeries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36992502-A2B0-C14A-A0E0-44866BB27A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796E2B7-1313-9846-BF94-197A27B31066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
   </bookViews>
   <sheets>
     <sheet name="residential" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,37 @@
     <sheet name="industrial" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">residential!$A$1:$H$136</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">residential!$C$7:$C$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">residential!$D$7:$D$21</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">residential!$C$7:$C$21</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">residential!$D$7:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">residential!$A$1:$I$136</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">industrial!$B$32:$B$46</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">industrial!$E$17:$E$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">industrial!$E$47:$E$61</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">industrial!$E$62:$E$76</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">(industrial!$D$17:$D$26,industrial!$C$27:$C$31)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">(industrial!$D$32:$D$43,industrial!$C$44:$C$46)</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">(industrial!$D$47:$D$57,industrial!$C$58:$C$61)</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">industrial!$B$32:$B$46</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">industrial!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">industrial!$C$62:$C$76</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">(industrial!$D$17:$D$26,industrial!$C$27:$C$31)</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">(industrial!$D$32:$D$43,industrial!$C$44:$C$46)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">industrial!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">(industrial!$D$47:$D$57,industrial!$C$58:$C$61)</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">industrial!$B$32:$B$46</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">industrial!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">industrial!$C$62:$C$76</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(industrial!$D$17:$D$26,industrial!$C$27:$C$31)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">(industrial!$D$32:$D$43,industrial!$C$44:$C$46)</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(industrial!$D$47:$D$57,industrial!$C$58:$C$61)</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">industrial!$B$32:$B$46</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">industrial!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">industrial!$C$62:$C$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">industrial!$E$32:$E$46</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">industrial!$E$47:$E$61</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">industrial!$E$62:$E$76</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">industrial!$B$32:$B$46</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">industrial!$E$17:$E$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">industrial!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">industrial!$E$32:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="91">
   <si>
     <t>Utility</t>
   </si>
@@ -129,9 +155,6 @@
   </si>
   <si>
     <t>A1-A</t>
-  </si>
-  <si>
-    <t>A3-A</t>
   </si>
   <si>
     <t>TOU-8</t>
@@ -262,6 +285,66 @@
   <si>
     <t>Note: switching from GUS_M to CITS-3 since GUS_M closed</t>
   </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R-1A</t>
+  </si>
+  <si>
+    <t>Residential Fixed (RF01)</t>
+  </si>
+  <si>
+    <t>A2-A</t>
+  </si>
+  <si>
+    <t>Medium commercial rate, at 4.8 kV rather than 2 kV</t>
+  </si>
+  <si>
+    <t>UDC High Peak  ($/kWh)</t>
+  </si>
+  <si>
+    <t>UDC Mid Peak  ($/kWh)</t>
+  </si>
+  <si>
+    <t>UDC Low Peak   ($/kWh)</t>
+  </si>
+  <si>
+    <t>Commodity High Peak  ($/kWh)</t>
+  </si>
+  <si>
+    <t>Commodity Mid Peak  ($/kWh)</t>
+  </si>
+  <si>
+    <t>Commodity Low Peak   ($/kWh)</t>
+  </si>
+  <si>
+    <t>Adjustment Factors</t>
+  </si>
+  <si>
+    <t>Sum of kWh adjustment factors from https://www.ladwp.com/account/customer-service/electric-rates/commercial-adjustment-billing-factors</t>
+  </si>
+  <si>
+    <t>Secondary; maximum on-peak demand chargel March 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule EECC-CPP-D; adjustments are WF-NBC + DWR-BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 2021; Schedule EECC-CPP-D; adjustments are WF-NBC + DWR-BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule EECC-CPP-D; adjustment is DWR-BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule EECC-CPP-D adjustment is DWR-BC </t>
+  </si>
+  <si>
+    <t>Schedule EECC-CPP-D; adjustments are WF-NBC + DWR-BC; refund included</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +357,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000000_);_(&quot;$&quot;* \(#,##0.000000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,6 +464,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -420,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -494,14 +582,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,15 +679,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="4" xr:uid="{4CF21679-1190-7145-B275-20A994AF3406}"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{625D5E96-9CED-1C41-B113-74E4B3F15CB8}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2474,7 +2579,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2607,7 +2724,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2731,7 +2860,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2794,37 +2935,43 @@
                 <c:formatCode>_("$"* #,##0.00000_);_("$"* \(#,##0.00000\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.2870000000000004E-2</c:v>
+                  <c:v>7.3419999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8869999999999996E-2</c:v>
+                  <c:v>7.9419999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8869999999999996E-2</c:v>
+                  <c:v>7.9419999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2580000000000001E-2</c:v>
+                  <c:v>8.3169999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7260000000000004E-2</c:v>
+                  <c:v>8.8139999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3839999999999993E-2</c:v>
+                  <c:v>9.4719999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0799999999999992E-2</c:v>
+                  <c:v>9.1679999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9049999999999999E-2</c:v>
+                  <c:v>9.9729999999999985E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10638</c:v>
+                  <c:v>0.10708999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11857999999999999</c:v>
+                  <c:v>0.11935999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12486</c:v>
+                  <c:v>0.12583</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.14562999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.15321000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2999,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2985,7 +3144,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3045,52 +3216,52 @@
             <c:numRef>
               <c:f>industrial!$E$62:$E$76</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00000_);_("$"* \(#,##0.00000\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9.7099999999999999E-3</c:v>
+                  <c:v>8.8849999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4999999999999998E-3</c:v>
+                  <c:v>6.6810000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9900000000000006E-3</c:v>
+                  <c:v>6.3960000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.29E-3</c:v>
+                  <c:v>6.2469999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.48E-3</c:v>
+                  <c:v>6.4869999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1900000000000002E-3</c:v>
+                  <c:v>8.0110000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0599999999999995E-3</c:v>
+                  <c:v>7.6990000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3900000000000002E-3</c:v>
+                  <c:v>7.492E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9800000000000001E-3</c:v>
+                  <c:v>8.9819999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0120000000000001E-2</c:v>
+                  <c:v>9.9620000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2300000000000003E-3</c:v>
+                  <c:v>9.2439999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4299999999999999E-3</c:v>
+                  <c:v>9.7240000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4799999999999997E-3</c:v>
+                  <c:v>0.10489</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3099999999999999E-2</c:v>
+                  <c:v>0.15513000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.814E-2</c:v>
+                  <c:v>0.11958000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,6 +3281,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1430541615"/>
         <c:axId val="1430543327"/>
@@ -3400,7 +3572,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3533,7 +3717,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3657,7 +3853,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3720,37 +3928,43 @@
                 <c:formatCode>_("$"* #,##0.00000_);_("$"* \(#,##0.00000\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.9529999999999998E-2</c:v>
+                  <c:v>9.1350000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5530000000000004E-2</c:v>
+                  <c:v>9.7349999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5530000000000004E-2</c:v>
+                  <c:v>9.7349999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9239999999999995E-2</c:v>
+                  <c:v>0.1011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10392</c:v>
+                  <c:v>0.10607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11049999999999999</c:v>
+                  <c:v>0.11265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10746</c:v>
+                  <c:v>0.10960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11570999999999999</c:v>
+                  <c:v>0.11765999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12304000000000001</c:v>
+                  <c:v>0.12501999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13524</c:v>
+                  <c:v>0.13729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14152000000000001</c:v>
+                  <c:v>0.14376</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.16355999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>0.17114000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3778,7 +3992,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3911,7 +4137,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3971,52 +4209,52 @@
             <c:numRef>
               <c:f>industrial!$C$62:$C$76</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00000_);_("$"* \(#,##0.00000\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.243E-2</c:v>
+                  <c:v>0.12744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.189E-2</c:v>
+                  <c:v>9.5860000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.035E-2</c:v>
+                  <c:v>9.2399999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2199999999999999E-3</c:v>
+                  <c:v>9.4750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4200000000000003E-3</c:v>
+                  <c:v>9.6950000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1900000000000002E-3</c:v>
+                  <c:v>0.11744</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0599999999999995E-3</c:v>
+                  <c:v>0.11104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3900000000000002E-3</c:v>
+                  <c:v>0.11085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9800000000000001E-3</c:v>
+                  <c:v>0.11620999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0120000000000001E-2</c:v>
+                  <c:v>0.12589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2300000000000003E-3</c:v>
+                  <c:v>0.11774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4299999999999999E-3</c:v>
+                  <c:v>0.12399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4799999999999997E-3</c:v>
+                  <c:v>0.22836999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3099999999999999E-2</c:v>
+                  <c:v>0.32091000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.814E-2</c:v>
+                  <c:v>0.24451999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,6 +4274,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1430541615"/>
         <c:axId val="1430543327"/>
@@ -6451,13 +6690,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>301796</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>14475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>94772</xdr:rowOff>
@@ -6535,16 +6774,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301337</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>111221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>207917</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>794811</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>174871</xdr:rowOff>
+      <xdr:rowOff>184492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6573,16 +6812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216670</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:rowOff>68888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123250</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>710144</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>132538</xdr:rowOff>
+      <xdr:rowOff>142159</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6929,10 +7168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}">
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H68" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="A109" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6941,12 +7180,12 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="6" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6954,25 +7193,28 @@
         <v>17</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -6988,11 +7230,14 @@
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -7008,11 +7253,14 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
@@ -7028,11 +7276,14 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
@@ -7048,11 +7299,14 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
@@ -7068,11 +7322,14 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
@@ -7093,11 +7350,14 @@
         <f t="shared" ref="G7:G12" si="0">30*0.14784</f>
         <v>4.4352</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
@@ -7118,11 +7378,14 @@
         <f t="shared" si="0"/>
         <v>4.4352</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
@@ -7143,11 +7406,14 @@
         <f t="shared" si="0"/>
         <v>4.4352</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>1</v>
       </c>
@@ -7168,11 +7434,14 @@
         <f t="shared" si="0"/>
         <v>4.4352</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>1</v>
       </c>
@@ -7193,11 +7462,14 @@
         <f t="shared" si="0"/>
         <v>4.4352</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>1</v>
       </c>
@@ -7218,11 +7490,14 @@
         <f t="shared" si="0"/>
         <v>4.4352</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>1</v>
       </c>
@@ -7243,11 +7518,14 @@
         <f t="shared" ref="G13:G18" si="1">30*0.32854</f>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>1</v>
       </c>
@@ -7268,11 +7546,14 @@
         <f t="shared" si="1"/>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>1</v>
       </c>
@@ -7293,11 +7574,14 @@
         <f t="shared" si="1"/>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>1</v>
       </c>
@@ -7321,11 +7605,14 @@
         <f t="shared" si="1"/>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>1</v>
       </c>
@@ -7349,11 +7636,14 @@
         <f t="shared" si="1"/>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>1</v>
       </c>
@@ -7377,11 +7667,14 @@
         <f t="shared" si="1"/>
         <v>9.8561999999999994</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>1</v>
       </c>
@@ -7405,11 +7698,14 @@
         <f>0.3326*30</f>
         <v>9.9779999999999998</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>1</v>
       </c>
@@ -7433,11 +7729,14 @@
         <f>0.3481*30</f>
         <v>10.443000000000001</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>1</v>
       </c>
@@ -7461,11 +7760,14 @@
         <f>30*0.37612</f>
         <v>11.2836</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
@@ -7481,9 +7783,12 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
@@ -7499,9 +7804,12 @@
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
@@ -7517,9 +7825,12 @@
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
@@ -7535,9 +7846,12 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
@@ -7553,9 +7867,12 @@
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
@@ -7571,9 +7888,12 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
@@ -7589,9 +7909,12 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
@@ -7607,9 +7930,12 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
@@ -7625,9 +7951,12 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>2</v>
       </c>
@@ -7643,9 +7972,12 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
@@ -7664,9 +7996,12 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>2</v>
       </c>
@@ -7680,9 +8015,12 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>2</v>
       </c>
@@ -7696,9 +8034,12 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>2</v>
       </c>
@@ -7712,9 +8053,12 @@
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>2</v>
       </c>
@@ -7728,9 +8072,12 @@
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>2</v>
       </c>
@@ -7744,9 +8091,12 @@
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>2</v>
       </c>
@@ -7765,9 +8115,12 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>2</v>
       </c>
@@ -7786,9 +8139,12 @@
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
@@ -7807,9 +8163,12 @@
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>2</v>
       </c>
@@ -7828,89 +8187,107 @@
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="H41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="27">
         <v>2005</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="51"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="H42" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="27">
         <v>2006</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="51"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="H43" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="27">
         <v>2007</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
-      <c r="H44" s="51"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="H44" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="27">
         <v>2008</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="51"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="H45" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="27">
         <v>2009</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="51"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>3</v>
       </c>
@@ -7924,9 +8301,12 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>3</v>
       </c>
@@ -7940,9 +8320,12 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>3</v>
       </c>
@@ -7956,9 +8339,12 @@
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>3</v>
       </c>
@@ -7983,11 +8369,14 @@
         <f>30*0.059</f>
         <v>1.77</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>3</v>
       </c>
@@ -8012,11 +8401,14 @@
         <f>30*0.059</f>
         <v>1.77</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>3</v>
       </c>
@@ -8041,11 +8433,14 @@
         <f>30*0.059</f>
         <v>1.77</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>3</v>
       </c>
@@ -8070,11 +8465,14 @@
         <f>30*0.329</f>
         <v>9.870000000000001</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>3</v>
       </c>
@@ -8099,11 +8497,14 @@
         <f>30*0.329</f>
         <v>9.870000000000001</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>3</v>
       </c>
@@ -8128,11 +8529,14 @@
         <f>30*0.338</f>
         <v>10.14</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>3</v>
       </c>
@@ -8158,11 +8562,14 @@
         <f t="shared" ref="G56:G61" si="4">30*0.346</f>
         <v>10.379999999999999</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H56" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>3</v>
       </c>
@@ -8188,11 +8595,14 @@
         <f t="shared" si="4"/>
         <v>10.379999999999999</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>3</v>
       </c>
@@ -8218,11 +8628,14 @@
         <f t="shared" si="4"/>
         <v>10.379999999999999</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>3</v>
       </c>
@@ -8248,11 +8661,14 @@
         <f t="shared" si="4"/>
         <v>10.379999999999999</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>3</v>
       </c>
@@ -8278,11 +8694,14 @@
         <f t="shared" si="4"/>
         <v>10.379999999999999</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>3</v>
       </c>
@@ -8308,11 +8727,14 @@
         <f t="shared" si="4"/>
         <v>10.379999999999999</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>8</v>
       </c>
@@ -8328,9 +8750,12 @@
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>8</v>
       </c>
@@ -8346,9 +8771,12 @@
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>8</v>
       </c>
@@ -8364,9 +8792,12 @@
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="27"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>8</v>
       </c>
@@ -8382,9 +8813,12 @@
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="27"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>8</v>
       </c>
@@ -8400,9 +8834,12 @@
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>8</v>
       </c>
@@ -8418,9 +8855,12 @@
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="27"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>8</v>
       </c>
@@ -8436,9 +8876,12 @@
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="27"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>8</v>
       </c>
@@ -8454,9 +8897,12 @@
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="27"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>8</v>
       </c>
@@ -8472,9 +8918,12 @@
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="27"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>8</v>
       </c>
@@ -8490,9 +8939,12 @@
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="27"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>8</v>
       </c>
@@ -8508,9 +8960,12 @@
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="27"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>8</v>
       </c>
@@ -8526,9 +8981,12 @@
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="27"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>8</v>
       </c>
@@ -8544,9 +9002,12 @@
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>8</v>
       </c>
@@ -8562,9 +9023,12 @@
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>8</v>
       </c>
@@ -8583,11 +9047,14 @@
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>8</v>
       </c>
@@ -8606,11 +9073,14 @@
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>8</v>
       </c>
@@ -8629,11 +9099,14 @@
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
-      <c r="H78" s="27" t="s">
+      <c r="H78" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>8</v>
       </c>
@@ -8652,11 +9125,14 @@
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
-      <c r="H79" s="27" t="s">
+      <c r="H79" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>8</v>
       </c>
@@ -8675,11 +9151,14 @@
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
-      <c r="H80" s="27" t="s">
+      <c r="H80" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>8</v>
       </c>
@@ -8698,11 +9177,14 @@
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="27" t="s">
+      <c r="H81" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>4</v>
       </c>
@@ -8720,11 +9202,14 @@
       <c r="G82" s="34">
         <v>10</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>4</v>
       </c>
@@ -8742,11 +9227,14 @@
       <c r="G83" s="34">
         <v>10</v>
       </c>
-      <c r="H83" s="27" t="s">
+      <c r="H83" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>4</v>
       </c>
@@ -8764,11 +9252,14 @@
       <c r="G84" s="34">
         <v>10</v>
       </c>
-      <c r="H84" s="27" t="s">
+      <c r="H84" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I84" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>4</v>
       </c>
@@ -8786,11 +9277,14 @@
       <c r="G85" s="34">
         <v>10</v>
       </c>
-      <c r="H85" s="27" t="s">
+      <c r="H85" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>4</v>
       </c>
@@ -8808,11 +9302,14 @@
       <c r="G86" s="34">
         <v>10</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H86" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>4</v>
       </c>
@@ -8830,11 +9327,14 @@
       <c r="G87" s="34">
         <v>10</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H87" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
         <v>4</v>
       </c>
@@ -8852,11 +9352,14 @@
       <c r="G88" s="34">
         <v>10</v>
       </c>
-      <c r="H88" s="27" t="s">
+      <c r="H88" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>4</v>
       </c>
@@ -8876,11 +9379,14 @@
       <c r="G89" s="34">
         <v>10</v>
       </c>
-      <c r="H89" s="27" t="s">
+      <c r="H89" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>4</v>
       </c>
@@ -8900,11 +9406,14 @@
       <c r="G90" s="34">
         <v>10</v>
       </c>
-      <c r="H90" s="27" t="s">
+      <c r="H90" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>4</v>
       </c>
@@ -8924,11 +9433,14 @@
       <c r="G91" s="34">
         <v>10</v>
       </c>
-      <c r="H91" s="27" t="s">
+      <c r="H91" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
         <v>4</v>
       </c>
@@ -8948,11 +9460,14 @@
       <c r="G92" s="34">
         <v>10</v>
       </c>
-      <c r="H92" s="27" t="s">
+      <c r="H92" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>4</v>
       </c>
@@ -8972,11 +9487,14 @@
       <c r="G93" s="34">
         <v>10</v>
       </c>
-      <c r="H93" s="27" t="s">
+      <c r="H93" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>4</v>
       </c>
@@ -8996,11 +9514,14 @@
       <c r="G94" s="34">
         <v>10</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="H94" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>4</v>
       </c>
@@ -9020,11 +9541,14 @@
       <c r="G95" s="34">
         <v>10</v>
       </c>
-      <c r="H95" s="27" t="s">
+      <c r="H95" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I95" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>4</v>
       </c>
@@ -9044,11 +9568,14 @@
       <c r="G96" s="34">
         <v>10</v>
       </c>
-      <c r="H96" s="27" t="s">
+      <c r="H96" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>5</v>
       </c>
@@ -9066,11 +9593,14 @@
       <c r="G97" s="29">
         <v>0</v>
       </c>
-      <c r="H97" s="27" t="s">
+      <c r="H97" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>5</v>
       </c>
@@ -9088,11 +9618,14 @@
       <c r="G98" s="29">
         <v>0</v>
       </c>
-      <c r="H98" s="27" t="s">
+      <c r="H98" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>5</v>
       </c>
@@ -9110,11 +9643,14 @@
       <c r="G99" s="29">
         <v>0</v>
       </c>
-      <c r="H99" s="27" t="s">
+      <c r="H99" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>5</v>
       </c>
@@ -9133,11 +9669,14 @@
       <c r="G100" s="29">
         <v>0</v>
       </c>
-      <c r="H100" s="27" t="s">
+      <c r="H100" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
         <v>5</v>
       </c>
@@ -9156,11 +9695,14 @@
       <c r="G101" s="29">
         <v>0</v>
       </c>
-      <c r="H101" s="27" t="s">
+      <c r="H101" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>5</v>
       </c>
@@ -9181,11 +9723,14 @@
       <c r="G102" s="29">
         <v>0</v>
       </c>
-      <c r="H102" s="27" t="s">
+      <c r="H102" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>5</v>
       </c>
@@ -9206,11 +9751,14 @@
       <c r="G103" s="29">
         <v>0</v>
       </c>
-      <c r="H103" s="27" t="s">
+      <c r="H103" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>5</v>
       </c>
@@ -9231,11 +9779,14 @@
       <c r="G104" s="29">
         <v>0</v>
       </c>
-      <c r="H104" s="27" t="s">
+      <c r="H104" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
         <v>5</v>
       </c>
@@ -9256,12 +9807,15 @@
       <c r="G105" s="29">
         <v>0</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I105" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="49"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J105" s="49"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
         <v>5</v>
       </c>
@@ -9282,12 +9836,15 @@
       <c r="G106" s="29">
         <v>0</v>
       </c>
-      <c r="H106" s="40" t="s">
+      <c r="H106" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I106" s="49"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J106" s="49"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
         <v>5</v>
       </c>
@@ -9308,12 +9865,15 @@
       <c r="G107" s="29">
         <v>0</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="49"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J107" s="49"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
         <v>5</v>
       </c>
@@ -9333,17 +9893,20 @@
       <c r="G108" s="29">
         <v>0</v>
       </c>
-      <c r="H108" s="40" t="s">
+      <c r="H108" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I108" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I108" s="49"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="42"/>
+      <c r="J108" s="49"/>
+      <c r="M108" s="41"/>
       <c r="N108" s="42"/>
       <c r="O108" s="42"/>
-      <c r="P108" s="43"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P108" s="42"/>
+      <c r="Q108" s="43"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
         <v>5</v>
       </c>
@@ -9363,17 +9926,20 @@
       <c r="G109" s="29">
         <v>0</v>
       </c>
-      <c r="H109" s="40" t="s">
+      <c r="H109" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="49"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="42"/>
+      <c r="J109" s="49"/>
+      <c r="M109" s="41"/>
       <c r="N109" s="42"/>
       <c r="O109" s="42"/>
-      <c r="P109" s="43"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P109" s="42"/>
+      <c r="Q109" s="43"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="27" t="s">
         <v>5</v>
       </c>
@@ -9393,17 +9959,20 @@
       <c r="G110" s="29">
         <v>0</v>
       </c>
-      <c r="H110" s="40" t="s">
+      <c r="H110" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I110" s="49"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="42"/>
+      <c r="J110" s="49"/>
+      <c r="M110" s="41"/>
       <c r="N110" s="42"/>
       <c r="O110" s="42"/>
-      <c r="P110" s="43"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P110" s="42"/>
+      <c r="Q110" s="43"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
         <v>5</v>
       </c>
@@ -9423,17 +9992,20 @@
       <c r="G111" s="29">
         <v>0</v>
       </c>
-      <c r="H111" s="40" t="s">
+      <c r="H111" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I111" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="49"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="42"/>
+      <c r="J111" s="49"/>
+      <c r="M111" s="41"/>
       <c r="N111" s="42"/>
       <c r="O111" s="42"/>
-      <c r="P111" s="43"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P111" s="42"/>
+      <c r="Q111" s="43"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
         <v>5</v>
       </c>
@@ -9453,17 +10025,20 @@
       <c r="G112" s="29">
         <v>0</v>
       </c>
-      <c r="H112" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I112" s="49"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="42"/>
+      <c r="H112" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J112" s="49"/>
+      <c r="M112" s="41"/>
       <c r="N112" s="42"/>
       <c r="O112" s="42"/>
-      <c r="P112" s="44"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P112" s="42"/>
+      <c r="Q112" s="44"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
         <v>5</v>
       </c>
@@ -9483,17 +10058,20 @@
       <c r="G113" s="29">
         <v>0</v>
       </c>
-      <c r="H113" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="I113" s="49"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="42"/>
+      <c r="H113" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J113" s="49"/>
+      <c r="M113" s="41"/>
       <c r="N113" s="42"/>
       <c r="O113" s="42"/>
-      <c r="P113" s="43"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P113" s="42"/>
+      <c r="Q113" s="43"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
         <v>5</v>
       </c>
@@ -9513,17 +10091,20 @@
       <c r="G114" s="29">
         <v>0</v>
       </c>
-      <c r="H114" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I114" s="49"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="42"/>
+      <c r="H114" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J114" s="49"/>
+      <c r="M114" s="41"/>
       <c r="N114" s="42"/>
       <c r="O114" s="42"/>
-      <c r="P114" s="43"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P114" s="42"/>
+      <c r="Q114" s="43"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
         <v>5</v>
       </c>
@@ -9543,17 +10124,20 @@
       <c r="G115" s="29">
         <v>0</v>
       </c>
-      <c r="H115" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I115" s="49"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="42"/>
+      <c r="H115" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J115" s="49"/>
+      <c r="M115" s="41"/>
       <c r="N115" s="42"/>
       <c r="O115" s="42"/>
-      <c r="P115" s="43"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P115" s="42"/>
+      <c r="Q115" s="43"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
         <v>5</v>
       </c>
@@ -9573,20 +10157,23 @@
       <c r="G116" s="29">
         <v>0</v>
       </c>
-      <c r="H116" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I116" s="50"/>
-      <c r="J116" s="45"/>
+      <c r="H116" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J116" s="50"/>
       <c r="K116" s="45"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="47"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="46"/>
       <c r="N116" s="47"/>
       <c r="O116" s="47"/>
-      <c r="P116" s="48"/>
-      <c r="Q116" s="45"/>
-    </row>
-    <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P116" s="47"/>
+      <c r="Q116" s="48"/>
+      <c r="R116" s="45"/>
+    </row>
+    <row r="117" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>6</v>
       </c>
@@ -9601,9 +10188,9 @@
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
       <c r="H117" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I117"/>
+        <v>64</v>
+      </c>
+      <c r="I117" s="5"/>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
@@ -9612,8 +10199,9 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="27" t="s">
         <v>6</v>
       </c>
@@ -9628,10 +10216,11 @@
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
       <c r="H118" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
         <v>6</v>
       </c>
@@ -9646,10 +10235,11 @@
       <c r="F119" s="36"/>
       <c r="G119" s="36"/>
       <c r="H119" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>6</v>
       </c>
@@ -9664,10 +10254,11 @@
       <c r="F120" s="36"/>
       <c r="G120" s="36"/>
       <c r="H120" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
         <v>6</v>
       </c>
@@ -9682,10 +10273,11 @@
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
       <c r="H121" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
         <v>6</v>
       </c>
@@ -9703,14 +10295,15 @@
         <v>0</v>
       </c>
       <c r="G122" s="34">
-        <f>30*0.17</f>
+        <f t="shared" ref="G122:G127" si="6">30*0.17</f>
         <v>5.1000000000000005</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
         <v>6</v>
       </c>
@@ -9728,14 +10321,15 @@
         <v>0</v>
       </c>
       <c r="G123" s="34">
-        <f>30*0.17</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
         <v>6</v>
       </c>
@@ -9753,14 +10347,15 @@
         <v>0</v>
       </c>
       <c r="G124" s="34">
-        <f>30*0.17</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
         <v>6</v>
       </c>
@@ -9778,14 +10373,15 @@
         <v>0</v>
       </c>
       <c r="G125" s="34">
-        <f>30*0.17</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
         <v>6</v>
       </c>
@@ -9803,14 +10399,15 @@
         <v>0</v>
       </c>
       <c r="G126" s="34">
-        <f>30*0.17</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
         <v>6</v>
       </c>
@@ -9828,14 +10425,15 @@
         <v>0</v>
       </c>
       <c r="G127" s="34">
-        <f>30*0.17</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
         <v>6</v>
       </c>
@@ -9857,10 +10455,11 @@
         <v>9.870000000000001</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
         <v>6</v>
       </c>
@@ -9882,10 +10481,11 @@
         <v>9.870000000000001</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>6</v>
       </c>
@@ -9907,10 +10507,11 @@
         <v>9.870000000000001</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>6</v>
       </c>
@@ -9932,10 +10533,11 @@
         <v>9.870000000000001</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="27" t="s">
         <v>6</v>
       </c>
@@ -9957,10 +10559,11 @@
         <v>10.14</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="27" t="s">
         <v>6</v>
       </c>
@@ -9982,10 +10585,11 @@
         <v>10.14</v>
       </c>
       <c r="H133" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>6</v>
       </c>
@@ -10007,10 +10611,11 @@
         <v>10.5</v>
       </c>
       <c r="H134" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
         <v>6</v>
       </c>
@@ -10032,10 +10637,11 @@
         <v>11.4</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
         <v>6</v>
       </c>
@@ -10057,43 +10663,44 @@
         <v>11.76</v>
       </c>
       <c r="H136" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="139" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B139" s="37" t="s">
-        <v>46</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B141" s="39"/>
       <c r="C141" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H136" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}"/>
+  <autoFilter ref="A1:I136" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -10104,7 +10711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9456EBFD-B61B-F549-B6C4-33D3AA6702D9}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="181" workbookViewId="0">
+    <sheetView zoomScale="181" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -10119,19 +10726,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -10151,7 +10758,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -10171,7 +10778,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -10191,7 +10798,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -10211,7 +10818,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10231,7 +10838,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10251,7 +10858,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -10271,7 +10878,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -10291,7 +10898,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -10311,7 +10918,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -10331,7 +10938,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -10351,7 +10958,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -10371,7 +10978,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,7 +10998,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -10411,7 +11018,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -10432,7 +11039,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -11025,10 +11632,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -11045,10 +11652,10 @@
         <v>8.25</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -11065,10 +11672,10 @@
         <v>12</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -11085,10 +11692,10 @@
         <v>12</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -11105,10 +11712,10 @@
         <v>14</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -11125,10 +11732,10 @@
         <v>16</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -11145,10 +11752,10 @@
         <v>18</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -11165,10 +11772,10 @@
         <v>20</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -11185,10 +11792,10 @@
         <v>20.2</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -11205,10 +11812,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -11225,10 +11832,10 @@
         <v>21.35</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -11245,10 +11852,10 @@
         <v>22.35</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -11265,10 +11872,10 @@
         <v>28.4</v>
       </c>
       <c r="E59" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -11285,10 +11892,10 @@
         <v>35.15</v>
       </c>
       <c r="E60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -11305,10 +11912,10 @@
         <v>36.65</v>
       </c>
       <c r="E61" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -11567,28 +12174,28 @@
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="37" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -11600,11 +12207,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C73EA71-FD44-AA49-B897-B390D8FC9C19}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11616,36 +12223,60 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -11653,24 +12284,28 @@
         <v>2010</v>
       </c>
       <c r="C2" s="6">
-        <v>8.9529999999999998E-2</v>
+        <v>9.1350000000000001E-2</v>
       </c>
       <c r="D2" s="6">
-        <v>8.9529999999999998E-2</v>
+        <v>9.1350000000000001E-2</v>
       </c>
       <c r="E2" s="6">
-        <v>7.2870000000000004E-2</v>
+        <v>7.3419999999999999E-2</v>
       </c>
       <c r="F2" s="6">
+        <v>28</v>
+      </c>
+      <c r="G2" s="53">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -11678,26 +12313,28 @@
         <v>2011</v>
       </c>
       <c r="C3" s="6">
-        <v>9.5530000000000004E-2</v>
+        <v>9.7349999999999992E-2</v>
       </c>
       <c r="D3" s="6">
-        <v>9.5530000000000004E-2</v>
+        <v>9.7349999999999992E-2</v>
       </c>
       <c r="E3" s="6">
-        <v>7.8869999999999996E-2</v>
+        <v>7.9419999999999991E-2</v>
       </c>
       <c r="F3" s="6">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="6">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -11705,26 +12342,28 @@
         <v>2012</v>
       </c>
       <c r="C4" s="6">
-        <v>9.5530000000000004E-2</v>
+        <v>9.7349999999999992E-2</v>
       </c>
       <c r="D4" s="6">
-        <v>9.5530000000000004E-2</v>
+        <v>9.7349999999999992E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>7.8869999999999996E-2</v>
+        <v>7.9419999999999991E-2</v>
       </c>
       <c r="F4" s="6">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="6">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -11732,26 +12371,28 @@
         <v>2013</v>
       </c>
       <c r="C5" s="6">
-        <v>9.9239999999999995E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="D5" s="6">
-        <v>9.9239999999999995E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="E5" s="6">
-        <v>8.2580000000000001E-2</v>
+        <v>8.3169999999999994E-2</v>
       </c>
       <c r="F5" s="6">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -11759,26 +12400,28 @@
         <v>2014</v>
       </c>
       <c r="C6" s="6">
-        <v>0.10392</v>
+        <v>0.10607</v>
       </c>
       <c r="D6" s="6">
-        <v>0.10392</v>
+        <v>0.10607</v>
       </c>
       <c r="E6" s="6">
-        <v>8.7260000000000004E-2</v>
+        <v>8.8139999999999996E-2</v>
       </c>
       <c r="F6" s="6">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -11786,26 +12429,28 @@
         <v>2015</v>
       </c>
       <c r="C7" s="6">
-        <v>0.11049999999999999</v>
+        <v>0.11265</v>
       </c>
       <c r="D7" s="6">
-        <v>0.11049999999999999</v>
+        <v>0.11265</v>
       </c>
       <c r="E7" s="6">
-        <v>9.3839999999999993E-2</v>
+        <v>9.4719999999999999E-2</v>
       </c>
       <c r="F7" s="6">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -11813,26 +12458,28 @@
         <v>2016</v>
       </c>
       <c r="C8" s="6">
-        <v>0.10746</v>
+        <v>0.10960999999999999</v>
       </c>
       <c r="D8" s="6">
-        <v>0.10746</v>
+        <v>0.10960999999999999</v>
       </c>
       <c r="E8" s="6">
-        <v>9.0799999999999992E-2</v>
+        <v>9.1679999999999998E-2</v>
       </c>
       <c r="F8" s="6">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -11840,26 +12487,28 @@
         <v>2017</v>
       </c>
       <c r="C9" s="6">
-        <v>0.11570999999999999</v>
+        <v>0.11765999999999999</v>
       </c>
       <c r="D9" s="6">
-        <v>0.11570999999999999</v>
+        <v>0.11765999999999999</v>
       </c>
       <c r="E9" s="6">
-        <v>9.9049999999999999E-2</v>
+        <v>9.9729999999999985E-2</v>
       </c>
       <c r="F9" s="6">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -11867,26 +12516,28 @@
         <v>2018</v>
       </c>
       <c r="C10" s="6">
-        <v>0.12304000000000001</v>
+        <v>0.12501999999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>0.12304000000000001</v>
+        <v>0.12501999999999999</v>
       </c>
       <c r="E10" s="6">
-        <v>0.10638</v>
+        <v>0.10708999999999999</v>
       </c>
       <c r="F10" s="6">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -11894,26 +12545,28 @@
         <v>2019</v>
       </c>
       <c r="C11" s="6">
-        <v>0.13524</v>
+        <v>0.13729</v>
       </c>
       <c r="D11" s="6">
-        <v>0.13524</v>
+        <v>0.13729</v>
       </c>
       <c r="E11" s="6">
-        <v>0.11857999999999999</v>
+        <v>0.11935999999999999</v>
       </c>
       <c r="F11" s="6">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -11921,26 +12574,28 @@
         <v>2020</v>
       </c>
       <c r="C12" s="6">
-        <v>0.14152000000000001</v>
+        <v>0.14376</v>
       </c>
       <c r="D12" s="6">
-        <v>0.14152000000000001</v>
+        <v>0.14376</v>
       </c>
       <c r="E12" s="6">
-        <v>0.12486</v>
+        <v>0.12583</v>
       </c>
       <c r="F12" s="6">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="6">
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -11955,7 +12610,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -11970,35 +12625,101 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="54">
         <v>2023</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="55">
+        <f>J15+$P15</f>
+        <v>0.16355999999999998</v>
+      </c>
+      <c r="D15" s="55">
+        <f t="shared" ref="D15:E15" si="0">K15+$P15</f>
+        <v>0.16355999999999998</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="0"/>
+        <v>0.14562999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5.688E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>5.688E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3.8949999999999999E-2</v>
+      </c>
+      <c r="P15">
+        <f>0.0569+0.00399+0.00658+0.01035+0.02886</f>
+        <v>0.10668</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="54">
         <v>2024</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="55">
+        <f>J16+$P16</f>
+        <v>0.17114000000000001</v>
+      </c>
+      <c r="D16" s="55">
+        <f t="shared" ref="D16" si="1">K16+$P16</f>
+        <v>0.17114000000000001</v>
+      </c>
+      <c r="E16" s="55">
+        <f t="shared" ref="E16" si="2">L16+$P16</f>
+        <v>0.15321000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5.36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5.688E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5.688E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>3.8949999999999999E-2</v>
+      </c>
+      <c r="P16">
+        <f>0.0569+0.01815+0.00255+0.0123+0.02436</f>
+        <v>0.11426</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -12037,11 +12758,11 @@
       <c r="B19" s="7">
         <v>2012</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
@@ -12070,10 +12791,10 @@
         <v>14.88</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -12101,10 +12822,10 @@
         <v>15.33</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -12132,10 +12853,10 @@
         <v>15.57</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -12163,10 +12884,10 @@
         <v>17.579999999999998</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -12194,10 +12915,10 @@
         <v>18.55</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -12225,10 +12946,10 @@
         <v>19.02</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -12256,10 +12977,10 @@
         <v>18.55</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -12288,10 +13009,10 @@
         <v>11.78</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -12319,10 +13040,10 @@
         <v>14.97</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -12351,10 +13072,10 @@
         <v>18.97</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -12383,10 +13104,10 @@
         <v>21.22</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -12415,10 +13136,10 @@
         <v>23.28</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -12445,10 +13166,10 @@
         <v>7.97</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -12475,10 +13196,10 @@
         <v>9</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -12505,10 +13226,10 @@
         <v>11.85</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -12535,10 +13256,10 @@
         <v>11.79</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -12565,10 +13286,10 @@
         <v>12.24</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -12595,10 +13316,10 @@
         <v>13.67</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -12625,10 +13346,10 @@
         <v>15.86</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -12655,10 +13376,10 @@
         <v>16.079999999999998</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -12685,10 +13406,10 @@
         <v>17.57</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -12715,10 +13436,10 @@
         <v>17.54</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -12745,10 +13466,10 @@
         <v>20.55</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -12775,10 +13496,10 @@
         <v>21.08</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -12805,10 +13526,10 @@
         <v>26.03</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -12835,10 +13556,10 @@
         <v>26.46</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -12865,10 +13586,10 @@
         <v>37.85</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -12895,7 +13616,7 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -12922,10 +13643,10 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -12949,10 +13670,10 @@
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -12976,10 +13697,10 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
@@ -13003,10 +13724,10 @@
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -13030,10 +13751,10 @@
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
@@ -13057,10 +13778,10 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
@@ -13084,10 +13805,10 @@
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>5</v>
       </c>
@@ -13111,10 +13832,10 @@
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
@@ -13138,10 +13859,10 @@
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
@@ -13165,10 +13886,10 @@
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
@@ -13192,10 +13913,10 @@
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
@@ -13211,20 +13932,20 @@
       <c r="E59" s="15">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="51">
         <v>278.60000000000002</v>
       </c>
-      <c r="G59" s="53">
+      <c r="G59" s="52">
         <v>3.61</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -13247,13 +13968,13 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
@@ -13276,162 +13997,300 @@
         <v>4.6920000000000002</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="5">
         <v>2010</v>
       </c>
-      <c r="C62" s="6">
-        <v>1.243E-2</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1.057E-2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>9.7099999999999999E-3</v>
+      <c r="C62" s="55">
+        <f t="shared" ref="C62:C75" si="3">J62+M62+$P62</f>
+        <v>0.12744</v>
+      </c>
+      <c r="D62" s="55">
+        <f t="shared" ref="D62:D75" si="4">K62+N62+$P62</f>
+        <v>0.1164</v>
+      </c>
+      <c r="E62" s="55">
+        <f t="shared" ref="E62:E75" si="5">L62+O62+$P62</f>
+        <v>8.8849999999999998E-2</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="6">
         <v>4.6399999999999997</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1.243E-2</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1.057E-2</v>
+      </c>
+      <c r="L62" s="6">
+        <v>9.7099999999999999E-3</v>
+      </c>
+      <c r="M62">
+        <v>0.10986</v>
+      </c>
+      <c r="N62">
+        <v>0.10068000000000001</v>
+      </c>
+      <c r="O62">
+        <v>7.399E-2</v>
+      </c>
+      <c r="P62">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="5">
         <v>2011</v>
       </c>
-      <c r="C63" s="6">
-        <v>1.189E-2</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1.026E-2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>9.4999999999999998E-3</v>
+      <c r="C63" s="55">
+        <f t="shared" si="3"/>
+        <v>9.5860000000000001E-2</v>
+      </c>
+      <c r="D63" s="55">
+        <f t="shared" si="4"/>
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="E63" s="55">
+        <f t="shared" si="5"/>
+        <v>6.6810000000000008E-2</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="6">
         <v>5.23</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1.189E-2</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1.026E-2</v>
+      </c>
+      <c r="L63" s="6">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M63">
+        <v>7.8920000000000004E-2</v>
+      </c>
+      <c r="N63">
+        <v>7.2090000000000001E-2</v>
+      </c>
+      <c r="O63">
+        <v>5.2260000000000001E-2</v>
+      </c>
+      <c r="P63">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="5">
         <v>2012</v>
       </c>
-      <c r="C64" s="6">
-        <v>1.035E-2</v>
-      </c>
-      <c r="D64" s="6">
-        <v>8.7399999999999995E-3</v>
-      </c>
-      <c r="E64" s="6">
-        <v>7.9900000000000006E-3</v>
+      <c r="C64" s="55">
+        <f t="shared" si="3"/>
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="D64" s="55">
+        <f t="shared" si="4"/>
+        <v>8.410999999999999E-2</v>
+      </c>
+      <c r="E64" s="55">
+        <f t="shared" si="5"/>
+        <v>6.3960000000000003E-2</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="6">
         <v>4.75</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.035E-2</v>
+      </c>
+      <c r="K64" s="6">
+        <v>8.7399999999999995E-3</v>
+      </c>
+      <c r="L64" s="6">
+        <v>7.9900000000000006E-3</v>
+      </c>
+      <c r="M64">
+        <v>7.6920000000000002E-2</v>
+      </c>
+      <c r="N64">
+        <v>7.0239999999999997E-2</v>
+      </c>
+      <c r="O64">
+        <v>5.0840000000000003E-2</v>
+      </c>
+      <c r="P64">
+        <v>5.13E-3</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="5">
         <v>2013</v>
       </c>
-      <c r="C65" s="6">
-        <v>-1.2199999999999999E-3</v>
-      </c>
-      <c r="D65" s="6">
-        <v>-2.63E-3</v>
-      </c>
-      <c r="E65" s="6">
-        <v>-3.29E-3</v>
+      <c r="C65" s="55">
+        <f t="shared" si="3"/>
+        <v>9.4750000000000001E-2</v>
+      </c>
+      <c r="D65" s="55">
+        <f t="shared" si="4"/>
+        <v>8.5610000000000006E-2</v>
+      </c>
+      <c r="E65" s="55">
+        <f t="shared" si="5"/>
+        <v>6.2469999999999998E-2</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="6">
         <v>4.78</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J65" s="6">
+        <v>-1.2199999999999999E-3</v>
+      </c>
+      <c r="K65" s="6">
+        <v>-2.63E-3</v>
+      </c>
+      <c r="L65" s="6">
+        <v>-3.29E-3</v>
+      </c>
+      <c r="M65">
+        <v>9.1039999999999996E-2</v>
+      </c>
+      <c r="N65">
+        <v>8.3309999999999995E-2</v>
+      </c>
+      <c r="O65">
+        <v>6.0830000000000002E-2</v>
+      </c>
+      <c r="P65">
+        <v>4.9300000000000004E-3</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="5">
         <v>2014</v>
       </c>
-      <c r="C66" s="6">
-        <v>4.4200000000000003E-3</v>
-      </c>
-      <c r="D66" s="6">
-        <v>2.4099999999999998E-3</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1.48E-3</v>
+      <c r="C66" s="55">
+        <f t="shared" si="3"/>
+        <v>9.6950000000000008E-2</v>
+      </c>
+      <c r="D66" s="55">
+        <f t="shared" si="4"/>
+        <v>8.7479999999999988E-2</v>
+      </c>
+      <c r="E66" s="55">
+        <f t="shared" si="5"/>
+        <v>6.4869999999999997E-2</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="6">
         <v>6.27</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J66" s="6">
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="K66" s="6">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="L66" s="6">
+        <v>1.48E-3</v>
+      </c>
+      <c r="M66">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="N66">
+        <v>7.9939999999999997E-2</v>
+      </c>
+      <c r="O66">
+        <v>5.8259999999999999E-2</v>
+      </c>
+      <c r="P66">
+        <v>5.13E-3</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="5">
         <v>2015</v>
       </c>
-      <c r="C67" s="6">
-        <v>5.1900000000000002E-3</v>
-      </c>
-      <c r="D67" s="6">
-        <v>5.1900000000000002E-3</v>
-      </c>
-      <c r="E67" s="6">
-        <v>5.1900000000000002E-3</v>
+      <c r="C67" s="55">
+        <f t="shared" si="3"/>
+        <v>0.11744</v>
+      </c>
+      <c r="D67" s="55">
+        <f t="shared" si="4"/>
+        <v>0.10173</v>
+      </c>
+      <c r="E67" s="55">
+        <f t="shared" si="5"/>
+        <v>8.0110000000000001E-2</v>
       </c>
       <c r="F67" s="6">
         <v>465.74</v>
@@ -13440,81 +14299,162 @@
         <v>7.66</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J67" s="6">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="K67" s="6">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="L67" s="6">
+        <v>5.1900000000000002E-3</v>
+      </c>
+      <c r="M67">
+        <v>0.10699</v>
+      </c>
+      <c r="N67">
+        <v>9.128E-2</v>
+      </c>
+      <c r="O67">
+        <v>6.966E-2</v>
+      </c>
+      <c r="P67">
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="5">
         <v>2016</v>
       </c>
-      <c r="C68" s="6">
-        <v>8.0599999999999995E-3</v>
-      </c>
-      <c r="D68" s="6">
-        <v>8.0599999999999995E-3</v>
-      </c>
-      <c r="E68" s="6">
-        <v>8.0599999999999995E-3</v>
+      <c r="C68" s="55">
+        <f t="shared" si="3"/>
+        <v>0.11104</v>
+      </c>
+      <c r="D68" s="55">
+        <f t="shared" si="4"/>
+        <v>9.6710000000000004E-2</v>
+      </c>
+      <c r="E68" s="55">
+        <f t="shared" si="5"/>
+        <v>7.6990000000000003E-2</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="6">
         <v>6.86</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J68" s="6">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="K68" s="6">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="L68" s="6">
+        <v>8.0599999999999995E-3</v>
+      </c>
+      <c r="M68">
+        <v>9.7589999999999996E-2</v>
+      </c>
+      <c r="N68">
+        <v>8.3260000000000001E-2</v>
+      </c>
+      <c r="O68">
+        <v>6.3539999999999999E-2</v>
+      </c>
+      <c r="P68">
+        <v>5.3899999999999998E-3</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="5">
         <v>2017</v>
       </c>
-      <c r="C69" s="6">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="E69" s="6">
-        <v>2.3900000000000002E-3</v>
+      <c r="C69" s="55">
+        <f t="shared" si="3"/>
+        <v>0.11085</v>
+      </c>
+      <c r="D69" s="55">
+        <f t="shared" si="4"/>
+        <v>9.5739999999999992E-2</v>
+      </c>
+      <c r="E69" s="55">
+        <f t="shared" si="5"/>
+        <v>7.492E-2</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="6">
         <v>7.57</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="L69" s="6">
+        <v>2.3900000000000002E-3</v>
+      </c>
+      <c r="M69">
+        <v>0.10297000000000001</v>
+      </c>
+      <c r="N69">
+        <v>8.7859999999999994E-2</v>
+      </c>
+      <c r="O69">
+        <v>6.7040000000000002E-2</v>
+      </c>
+      <c r="P69">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="5">
         <v>2018</v>
       </c>
-      <c r="C70" s="6">
-        <v>4.9800000000000001E-3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>4.9800000000000001E-3</v>
-      </c>
-      <c r="E70" s="6">
-        <v>4.9800000000000001E-3</v>
+      <c r="C70" s="55">
+        <f>J70+M70+$P70</f>
+        <v>0.11620999999999999</v>
+      </c>
+      <c r="D70" s="55">
+        <f>K70+N70+$P70</f>
+        <v>0.1037</v>
+      </c>
+      <c r="E70" s="55">
+        <f>L70+O70+$P70</f>
+        <v>8.9819999999999997E-2</v>
       </c>
       <c r="F70" s="6">
         <v>558.89</v>
@@ -13523,27 +14463,52 @@
         <v>16.61</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J70" s="6">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="K70" s="6">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="L70" s="6">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="M70">
+        <v>0.11123</v>
+      </c>
+      <c r="N70">
+        <v>9.8720000000000002E-2</v>
+      </c>
+      <c r="O70">
+        <v>8.4839999999999999E-2</v>
+      </c>
+      <c r="P70" s="4"/>
+      <c r="Q70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="6">
-        <v>1.0120000000000001E-2</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1.0120000000000001E-2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1.0120000000000001E-2</v>
+      <c r="C71" s="55">
+        <f>J71+M71+$P71</f>
+        <v>0.12589</v>
+      </c>
+      <c r="D71" s="55">
+        <f>K71+N71+$P71</f>
+        <v>0.11344000000000001</v>
+      </c>
+      <c r="E71" s="55">
+        <f>L71+O71+$P71</f>
+        <v>9.9620000000000014E-2</v>
       </c>
       <c r="F71" s="6">
         <v>744.64</v>
@@ -13552,108 +14517,217 @@
         <v>16.98</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1.0120000000000001E-2</v>
+      </c>
+      <c r="M71">
+        <v>0.11074000000000001</v>
+      </c>
+      <c r="N71">
+        <v>9.8290000000000002E-2</v>
+      </c>
+      <c r="O71">
+        <v>8.4470000000000003E-2</v>
+      </c>
+      <c r="P71">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="5">
         <v>2020</v>
       </c>
-      <c r="C72" s="6">
-        <v>5.2300000000000003E-3</v>
-      </c>
-      <c r="D72" s="6">
-        <v>5.2300000000000003E-3</v>
-      </c>
-      <c r="E72" s="6">
-        <v>5.2300000000000003E-3</v>
+      <c r="C72" s="55">
+        <f>J72+M72+$P72</f>
+        <v>0.11774999999999999</v>
+      </c>
+      <c r="D72" s="55">
+        <f>K72+N72+$P72</f>
+        <v>0.10575</v>
+      </c>
+      <c r="E72" s="55">
+        <f>L72+O72+$P72</f>
+        <v>9.2439999999999994E-2</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="6">
         <v>19.22</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J72" s="6">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="K72" s="6">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="L72" s="6">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="M72">
+        <v>0.10672</v>
+      </c>
+      <c r="N72">
+        <v>9.4719999999999999E-2</v>
+      </c>
+      <c r="O72">
+        <v>8.1409999999999996E-2</v>
+      </c>
+      <c r="P72">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="5">
         <v>2021</v>
       </c>
-      <c r="C73" s="6">
-        <v>5.4299999999999999E-3</v>
-      </c>
-      <c r="D73" s="6">
-        <v>5.4299999999999999E-3</v>
-      </c>
-      <c r="E73" s="6">
-        <v>5.4299999999999999E-3</v>
+      <c r="C73" s="55">
+        <f t="shared" si="3"/>
+        <v>0.12399</v>
+      </c>
+      <c r="D73" s="55">
+        <f t="shared" si="4"/>
+        <v>0.11131000000000001</v>
+      </c>
+      <c r="E73" s="55">
+        <f t="shared" si="5"/>
+        <v>9.7240000000000007E-2</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="6">
         <v>20.62</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J73" s="6">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="K73" s="6">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="L73" s="6">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="M73">
+        <v>0.11276</v>
+      </c>
+      <c r="N73">
+        <v>0.10008</v>
+      </c>
+      <c r="O73">
+        <v>8.6010000000000003E-2</v>
+      </c>
+      <c r="P73">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="5">
         <v>2022</v>
       </c>
-      <c r="C74" s="6">
-        <v>7.4799999999999997E-3</v>
-      </c>
-      <c r="D74" s="6">
-        <v>7.4799999999999997E-3</v>
-      </c>
-      <c r="E74" s="6">
-        <v>7.4799999999999997E-3</v>
+      <c r="C74" s="55">
+        <f t="shared" si="3"/>
+        <v>0.22836999999999999</v>
+      </c>
+      <c r="D74" s="55">
+        <f t="shared" si="4"/>
+        <v>0.13264000000000001</v>
+      </c>
+      <c r="E74" s="55">
+        <f t="shared" si="5"/>
+        <v>0.10489</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="6">
         <v>25.56</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J74" s="6">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="K74" s="6">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="L74" s="6">
+        <v>7.4799999999999997E-3</v>
+      </c>
+      <c r="M74">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="N74">
+        <v>0.12207</v>
+      </c>
+      <c r="O74">
+        <v>9.4320000000000001E-2</v>
+      </c>
+      <c r="P74">
+        <f>-0.00343+0.00652</f>
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="5">
         <v>2023</v>
       </c>
-      <c r="C75" s="6">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="D75" s="6">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="E75" s="6">
-        <v>2.3099999999999999E-2</v>
+      <c r="C75" s="55">
+        <f t="shared" si="3"/>
+        <v>0.32091000000000003</v>
+      </c>
+      <c r="D75" s="55">
+        <f t="shared" si="4"/>
+        <v>0.19242000000000001</v>
+      </c>
+      <c r="E75" s="55">
+        <f t="shared" si="5"/>
+        <v>0.15513000000000002</v>
       </c>
       <c r="F75" s="6">
         <v>766.91</v>
@@ -13662,63 +14736,116 @@
         <v>28.83</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="L75" s="6">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="M75">
+        <v>0.29250999999999999</v>
+      </c>
+      <c r="N75">
+        <v>0.16402</v>
+      </c>
+      <c r="O75">
+        <v>0.12673000000000001</v>
+      </c>
+      <c r="P75">
+        <v>5.3E-3</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="5">
         <v>2024</v>
       </c>
-      <c r="C76" s="6">
-        <v>1.814E-2</v>
-      </c>
-      <c r="D76" s="6">
-        <v>1.814E-2</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1.814E-2</v>
-      </c>
-      <c r="F76" s="7"/>
+      <c r="C76" s="55">
+        <f>J76+M76+$P76</f>
+        <v>0.24451999999999999</v>
+      </c>
+      <c r="D76" s="55">
+        <f t="shared" ref="D76:E76" si="6">K76+N76+$P76</f>
+        <v>0.14777999999999999</v>
+      </c>
+      <c r="E76" s="55">
+        <f t="shared" si="6"/>
+        <v>0.11958000000000001</v>
+      </c>
+      <c r="F76" s="54">
+        <v>766.91</v>
+      </c>
       <c r="G76" s="6">
         <v>28.13</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1.814E-2</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1.814E-2</v>
+      </c>
+      <c r="L76" s="6">
+        <v>1.814E-2</v>
+      </c>
+      <c r="M76">
+        <v>0.22076999999999999</v>
+      </c>
+      <c r="N76">
+        <v>0.12403</v>
+      </c>
+      <c r="O76">
+        <v>9.5829999999999999E-2</v>
+      </c>
+      <c r="P76">
+        <v>5.6100000000000004E-3</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="37" t="s">
-        <v>46</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Fig6_ResRateTimeSeries/Jan1BaselineTieredRate.xlsx
+++ b/Fig6_ResRateTimeSeries/Jan1BaselineTieredRate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayan/Developer/CCAResearch/ConsolidatedPrimerData/CA_electricity_primer/Fig6_ResRateTimeSeries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796E2B7-1313-9846-BF94-197A27B31066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5015AA3B-8DD2-FB41-B9B6-9CEDD03DB1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="25600" windowHeight="14260" activeTab="2" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
   </bookViews>
   <sheets>
     <sheet name="residential" sheetId="1" r:id="rId1"/>
@@ -6691,14 +6691,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>301796</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>200196</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>14475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>94772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7170,7 +7170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
@@ -10711,7 +10711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9456EBFD-B61B-F549-B6C4-33D3AA6702D9}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="181" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -12209,9 +12209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C73EA71-FD44-AA49-B897-B390D8FC9C19}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
